--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Product ID</t>
   </si>
@@ -22,10 +22,7 @@
     <t>Packing Unit ID</t>
   </si>
   <si>
-    <t>Min Cart</t>
-  </si>
-  <si>
-    <t>Max Cart</t>
+    <t>Cart Rules</t>
   </si>
 </sst>
 </file>
@@ -383,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,78 +396,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>990</v>
+        <v>8915</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2912</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2912</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>6097</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6097</v>
-      </c>
-      <c r="B6">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8915</v>
+        <v>6158</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6158</v>
+        <v>615</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>6497</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>11838</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>615</v>
+        <v>8089</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>6497</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>11838</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8089</v>
+        <v>6936</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_1123.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6936</v>
+        <v>7706</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
